--- a/biology/Zoologie/Juditha/Juditha.xlsx
+++ b/biology/Zoologie/Juditha/Juditha.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Juditha est un genre d'insectes lépidoptères de la famille des Riodinidae.
 </t>
@@ -511,9 +523,11 @@
           <t>Systématique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le genre Juditha a été créé en 1964 par l'entomologiste britannique Arthur Francis Hemming[1] (1893-1964).
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le genre Juditha a été créé en 1964 par l'entomologiste britannique Arthur Francis Hemming (1893-1964).
 </t>
         </is>
       </c>
@@ -542,15 +556,17 @@
           <t>Liste des espèces</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Juditha azan (Westwood, [1851]) ; Guyane, Guyana, Venezuela, Trinité-et-Tobago, Colombie, Bolivie, Pérou, Brésil
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Juditha azan (Westwood, ) ; Guyane, Guyana, Venezuela, Trinité-et-Tobago, Colombie, Bolivie, Pérou, Brésil
 Juditha caucana (Stichel, 1911) ; Mexique, Panama, Trinité-et-Tobago, Colombie, Équateur
 Juditha dorilis (Bates, 1866) ; Costa Rica, Nicaragua, Panama, Équateur, Guyane
 Juditha inambari Hall &amp; Harvey, 2001 ; Brésil
-Juditha molpe (Hübner, [1808]) ; Paraguay, Venezuela, Trinité-et-Tobago, Colombie, Brésil
+Juditha molpe (Hübner, ) ; Paraguay, Venezuela, Trinité-et-Tobago, Colombie, Brésil
 Juditha naza Hall &amp; Harvey, 2001 ; Colombie, Équateur
-Juditha odites (Cramer, [1775]) ;  Guyane, Guyana, Venezuela, Pérou
+Juditha odites (Cramer, ) ;  Guyane, Guyana, Venezuela, Pérou
 Juditha pulcherrima (Butler, 1867) ; Colombie, Pérou</t>
         </is>
       </c>
